--- a/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,49; 73,74</t>
+          <t>54,09; 73,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,53; 71,83</t>
+          <t>56,39; 71,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,74; 69,9</t>
+          <t>57,58; 70,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,53; 78,78</t>
+          <t>70,73; 78,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,44; 73,28</t>
+          <t>66,49; 73,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,77; 74,74</t>
+          <t>69,32; 74,53</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,43; 83,13</t>
+          <t>76,19; 83,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,13; 78,04</t>
+          <t>73,25; 78,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,68; 79,95</t>
+          <t>75,78; 80,27</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,51; 68,97</t>
+          <t>60,22; 68,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,71; 79,89</t>
+          <t>59,65; 78,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,82; 73,02</t>
+          <t>61,67; 73,93</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,24; 73,0</t>
+          <t>66,52; 72,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,79; 67,38</t>
+          <t>60,59; 67,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,42; 69,11</t>
+          <t>64,33; 69,13</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,41; 74,2</t>
+          <t>70,26; 74,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,13; 72,26</t>
+          <t>67,05; 72,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,11; 72,29</t>
+          <t>69,15; 72,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,09; 73,12</t>
+          <t>53,49; 73,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,39; 71,55</t>
+          <t>56,53; 71,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,58; 70,06</t>
+          <t>57,74; 69,9</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,73; 78,38</t>
+          <t>70,53; 78,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,49; 73,08</t>
+          <t>66,44; 73,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,32; 74,53</t>
+          <t>69,77; 74,74</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,19; 83,25</t>
+          <t>76,43; 83,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,25; 78,05</t>
+          <t>73,13; 78,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,78; 80,27</t>
+          <t>75,68; 79,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,22; 68,18</t>
+          <t>60,51; 68,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,65; 78,36</t>
+          <t>59,71; 79,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,67; 73,93</t>
+          <t>61,82; 73,02</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,52; 72,99</t>
+          <t>66,24; 73,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,59; 67,24</t>
+          <t>60,79; 67,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,33; 69,13</t>
+          <t>64,42; 69,11</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,26; 74,28</t>
+          <t>70,41; 74,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,05; 72,43</t>
+          <t>67,13; 72,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,15; 72,39</t>
+          <t>69,11; 72,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>72,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,06%</t>
+          <t>70,49%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,49; 73,74</t>
+          <t>68,78; 76,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,53; 71,83</t>
+          <t>65,34; 71,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,74; 69,9</t>
+          <t>67,99; 72,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>75,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,19%</t>
+          <t>79,12%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,53; 78,78</t>
+          <t>76,36; 90,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,44; 73,28</t>
+          <t>72,36; 77,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,77; 74,74</t>
+          <t>75,4; 85,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>67,15%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,43; 83,13</t>
+          <t>59,32; 68,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,13; 78,04</t>
+          <t>59,29; 86,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,68; 79,95</t>
+          <t>61,28; 78,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>64,47%</t>
+          <t>69,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,19%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>64,77%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,51; 68,97</t>
+          <t>66,08; 73,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,71; 79,89</t>
+          <t>45,9; 65,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,82; 73,02</t>
+          <t>56,79; 68,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>68,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,98%</t>
+          <t>70,76%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,24; 73,0</t>
+          <t>70,6; 81,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,79; 67,38</t>
+          <t>64,16; 73,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,42; 69,11</t>
+          <t>68,05; 74,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>72,21%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>68,96%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>70,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>70,41; 74,2</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>67,13; 72,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>69,11; 72,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,78; 76,21</t>
+          <t>68,66; 76,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>65,34; 71,48</t>
+          <t>65,6; 71,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67,99; 72,85</t>
+          <t>67,7; 72,81</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,36; 90,72</t>
+          <t>75,78; 90,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,36; 77,35</t>
+          <t>72,71; 77,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,4; 85,85</t>
+          <t>75,55; 86,55</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,32; 68,3</t>
+          <t>58,42; 67,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,29; 86,73</t>
+          <t>59,23; 85,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,28; 78,37</t>
+          <t>61,05; 78,47</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,08; 73,09</t>
+          <t>66,5; 73,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,9; 65,86</t>
+          <t>46,84; 65,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,79; 68,16</t>
+          <t>56,11; 68,07</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,6; 81,21</t>
+          <t>70,52; 80,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64,16; 73,99</t>
+          <t>64,1; 74,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,05; 74,58</t>
+          <t>68,3; 75,17</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>409266</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>402887</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>812152</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>386919; 428404</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>386073; 421627</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>779997; 838853</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1661</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>914207</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>662269</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1576475</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>841559; 1006974</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>641306; 682823</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1505416; 1724565</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>420677</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>591369</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1012046</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>386232; 448050</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>501100; 720930</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>920133; 1182632</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>593645</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>587425</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1181070</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>565092; 621873</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>456034; 641314</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1023195; 1241173</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3145</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2337794</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2243949</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4581743</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2245967; 2556099</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2109104; 2434830</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4422301; 4867367</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>